--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2006-01-31.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2004-12-31-2006-01-31.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>O_FFR</t>
-  </si>
-  <si>
-    <t>FFR_O</t>
-  </si>
-  <si>
-    <t>B_A</t>
+    <t>A_C</t>
+  </si>
+  <si>
+    <t>A_LF</t>
+  </si>
+  <si>
+    <t>C_A</t>
+  </si>
+  <si>
+    <t>C_LF</t>
   </si>
   <si>
     <t>LF_A</t>
   </si>
   <si>
-    <t>A_B</t>
-  </si>
-  <si>
-    <t>A_LF</t>
+    <t>LF_C</t>
   </si>
   <si>
     <t>params</t>
@@ -426,22 +426,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1105175698221484</v>
+        <v>1.410371242522174</v>
       </c>
       <c r="C2">
-        <v>5.933573136535561</v>
+        <v>0.05395613442818714</v>
       </c>
       <c r="D2">
-        <v>0.4460177325454284</v>
+        <v>0.5794604028595696</v>
       </c>
       <c r="E2">
-        <v>5.62807246969964</v>
+        <v>-0.03415714508765878</v>
       </c>
       <c r="F2">
-        <v>1.313369504477425</v>
+        <v>13.15411268214751</v>
       </c>
       <c r="G2">
-        <v>0.05907176400835482</v>
+        <v>-20.2680503447667</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7.48076438350509E-07</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3.625364246695462E-05</v>
       </c>
       <c r="D3">
-        <v>1.885425149339426E-11</v>
+        <v>7.48076438350509E-07</v>
       </c>
       <c r="E3">
-        <v>9.415622711284044E-06</v>
+        <v>5.859768153815281E-05</v>
       </c>
       <c r="F3">
-        <v>2.09463557609979E-11</v>
+        <v>3.625364246695462E-05</v>
       </c>
       <c r="G3">
-        <v>1.957364714755272E-09</v>
+        <v>5.859768153815281E-05</v>
       </c>
     </row>
   </sheetData>
